--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/singapore_one.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/singapore_one.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
   </si>
   <si>
     <t>arg168776</t>
@@ -45,13 +45,13 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
   </si>
   <si>
     <t>arg168767</t>
   </si>
   <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
   </si>
   <si>
     <t>arg167722</t>
@@ -60,31 +60,31 @@
     <t>arg168768</t>
   </si>
   <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
   </si>
   <si>
     <t>arg168780</t>
   </si>
   <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
   </si>
   <si>
     <t>arg168793</t>
   </si>
   <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg168766</t>
   </si>
   <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
   </si>
   <si>
     <t>arg168804</t>
   </si>
   <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg168786</t>
@@ -93,7 +93,7 @@
     <t>arg168792</t>
   </si>
   <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
   </si>
   <si>
     <t>arg168818</t>
@@ -102,7 +102,7 @@
     <t>arg168805</t>
   </si>
   <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
   </si>
   <si>
     <t>festation. It took only a few days for Farquar to finish destroying the infestation, whereas Raffles did not do anything about the problem at all.</t>
@@ -111,7 +111,7 @@
     <t>arg168777</t>
   </si>
   <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
   </si>
   <si>
     <t>arg168831</t>
@@ -120,10 +120,10 @@
     <t>arg168832</t>
   </si>
   <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
   </si>
   <si>
     <t>arg168801</t>
@@ -132,13 +132,13 @@
     <t>arg168779</t>
   </si>
   <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
   </si>
   <si>
     <t>arg168834</t>
   </si>
   <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>t all. &lt;br/&gt; So what if he discovered the island majulah singapura, he did not help in the least in singapore's development. so why in the world should he deserve the title of 'singapore's founder'? &lt;br/&gt; Farquhar developed the island, with all his ideas contributing to the development.</t>
@@ -147,34 +147,34 @@
     <t>arg168764</t>
   </si>
   <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
   </si>
   <si>
     <t>arg168774</t>
   </si>
   <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
   </si>
   <si>
     <t>arg168811</t>
   </si>
   <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg168830</t>
   </si>
   <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
   </si>
   <si>
     <t>arg168822</t>
@@ -183,19 +183,19 @@
     <t>arg168812</t>
   </si>
   <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
   </si>
   <si>
     <t>ings. When he was sacked, thousands of people bade him farewell on the day he left Singapore. This proves that Farquhar is very important to the people.</t>
   </si>
   <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
   </si>
   <si>
     <t>ake some plans of his own, too, since Raffles had to leave for Bencoolen. This means that Farquhar had to plan on his own, too.</t>
@@ -204,34 +204,34 @@
     <t>arg168807</t>
   </si>
   <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
   </si>
   <si>
     <t>arg168791</t>
   </si>
   <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
   </si>
   <si>
     <t>fles was a bad developer of the country.</t>
   </si>
   <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33</t>
   </si>
   <si>
     <t>did. Raffles was just more of the idea man. William Farquhar was more of a founder of Singapore than Raffles.</t>
@@ -240,88 +240,88 @@
     <t>arg168773</t>
   </si>
   <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
   </si>
   <si>
     <t>arg168783</t>
   </si>
   <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
   </si>
   <si>
     <t>ne a lot to help Singapore.</t>
   </si>
   <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
   </si>
   <si>
     <t>arg168825</t>
   </si>
   <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>a more competent leader.</t>
   </si>
   <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
   </si>
   <si>
     <t>arg168770</t>
   </si>
   <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
   </si>
   <si>
     <t>velopment be unjustly sent off like that.</t>
   </si>
   <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
   </si>
   <si>
     <t>ing from them. Raffles wasn't around, and William had to think of a solution himself.</t>
   </si>
   <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
   </si>
   <si>
     <t>ts.</t>
@@ -330,1084 +330,1084 @@
     <t>arg168820</t>
   </si>
   <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0,135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69,12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>left Singapore. This shows that the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
   </si>
   <si>
     <t>oned an office at St. John's Island to inform the trading ships passing by about the settlement in Singapore.</t>
   </si>
   <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
   </si>
   <si>
     <t>rs to Singapore while Raffles was away.</t>
   </si>
   <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>small police force.</t>
   </si>
   <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
   </si>
   <si>
     <t>ockets to resolve certain issues. When he was forced to leave, the people sent him off with sorrow in their hearts.</t>
   </si>
   <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
   </si>
   <si>
     <t>affles only came up with the ideas, which would or would not work. Actions require action, and Farquhar implemented those ideas.</t>
   </si>
   <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>har more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
   </si>
   <si>
     <t>before he left compared to Raffles, which show how much the people loved him.</t>
   </si>
   <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>ple of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
   </si>
   <si>
     <t>s that Farquhar is very important to the people.</t>
   </si>
   <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
   </si>
   <si>
     <t>ngapore.He also attempted to know the people and understood malay, whereas Raffles hardly communicated with the people.</t>
   </si>
   <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
   </si>
   <si>
     <t>a lot of people would just ignore Farquhar's contribution and credit them to Raffles</t>
   </si>
   <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33</t>
   </si>
   <si>
     <t>ffles.</t>
   </si>
   <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>ing to the development.</t>
   </si>
   <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
   </si>
   <si>
     <t>he people sent him off with sorrow in their hearts.</t>
   </si>
   <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
   </si>
   <si>
     <t>ff than Raffles. This shows that the people recognized Farquhar as their founder, not Raffles</t>
   </si>
   <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>him off than the combined number of people that sent Raffles off during the three times Raffles left Singapore. This shows that the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
-  </si>
-  <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
+  </si>
+  <si>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>r of people that sent Raffles off during the three times Raffles left Singapore. This shows that the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
+  </si>
+  <si>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
   </si>
   <si>
     <t>ar's contribution and credit them to Raffles</t>
   </si>
   <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
   </si>
   <si>
     <t>even took money out of his own pockets to resolve certain issues. When he was forced to leave, the people sent him off with sorrow in their hearts.</t>
   </si>
   <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
   </si>
   <si>
     <t>ow in their hearts.</t>
   </si>
   <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
   </si>
   <si>
     <t>ngapore.</t>
   </si>
   <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
   </si>
   <si>
     <t>d to Farquar.</t>
   </si>
   <si>
-    <t>258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
+    <t>14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
   </si>
   <si>
     <t>e.</t>
   </si>
   <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
+  </si>
+  <si>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
   </si>
   <si>
     <t>not have much contribution to the founding of Singapore.</t>
   </si>
   <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0,185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13,176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25</t>
-  </si>
-  <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
+  </si>
+  <si>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
+  </si>
+  <si>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12,28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
+  </si>
+  <si>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27,10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8</t>
+  </si>
+  <si>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
   </si>
   <si>
     <t>s solved the problem quickly, as he held to his promise.</t>
   </si>
   <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
   </si>
   <si>
     <t>edit them to Raffles</t>
   </si>
   <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>ffles off during the three times Raffles left Singapore. This shows that the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0</t>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7</t>
   </si>
   <si>
     <t>country.</t>
   </si>
   <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
   </si>
   <si>
     <t>ho contributed so much to Singapore's development be unjustly sent off like that.</t>
   </si>
   <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13</t>
+  </si>
+  <si>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
+  </si>
+  <si>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
   </si>
   <si>
     <t>e combined number of people that sent Raffles off during the three times Raffles left Singapore. This shows that the people of Singapore respected Farquhar more than Raffles, and to them, Farquhar was a more competent leader.</t>
   </si>
   <si>
-    <t>172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.0,16.53,0.0,0.06,1.0,0.0,0.0,0.58,0.1,0.2,0.2,0.13,0.25,251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>135,0.5,14.32,0.0,0.08,1.0,0.0,0.0,0.88,0.05,0.1,0.1,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
+    <t>29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>18.0,5.89,1.01,0.97,1.04,0.0,16.53,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.19,0.08,0.17,0.06,0.06,0.03,0.06,0.0,0.25,0.25,6.8,22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>12.0,5.63,0.67,0.97,0.69,0.5,14.32,0.0,0.08,1.0,0,0,0.0,0.0,0.88,0.25,0.0,0.25,0.04,0.04,0.04,0.04,0.0,0.0,0.0,1.0,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
   </si>
   <si>
     <t>it running against all odds after British presence was introduced, as Raffles had to return to Bencoolen.</t>
   </si>
   <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,317,0.33,15.27,0.0,0.04,1.0,0.0,0.0,0.58,0.3,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0,172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,18.67,5.66,1.57,1.46,1.08,0.33,15.27,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.2,0.04,0.2,0.05,0.05,0.09,0.02,0.0,0.0,0.0,6.12</t>
+  </si>
+  <si>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13,30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55</t>
+  </si>
+  <si>
+    <t>28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>itle of 'singapore's founder'? &lt;br/&gt; Farquhar developed the island, with all his ideas contributing to the development.</t>
   </si>
   <si>
-    <t>185,1.0,20.12,0.0,0.07,2.0,0.0,0.0,0.29,0.25,0.2,0.2,0.0,0.0,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
-  </si>
-  <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,194,0.0,18.14,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,258,0.0,16.73,0.0,0.05,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.13,0.25</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
+    <t>28.0,6.61,0.79,0.49,1.62,1.0,20.12,0.0,0.07,2.0,0,0,0.0,0.0,0.29,0.25,0.07,0.11,0.07,0.07,0.0,0.07,0.2,0.0,0.0,6.69,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
+  </si>
+  <si>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,15.5,6.26,0.87,0.97,0.9,0.0,18.14,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.26,0.03,0.19,0.06,0.06,0.0,0.06,0.0,0.0,0.0,6.22</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,14.33,6.0,1.21,1.46,0.83,0.0,16.73,0.0,0.05,1.0,0,0,0.0,0.0,0.88,0.28,0.02,0.19,0.02,0.02,0.09,0.02,0.0,0.25,0.25,3.72</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
   </si>
   <si>
     <t>har was the one to DEVELOP Singapore to what it is today.</t>
   </si>
   <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0</t>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0</t>
   </si>
   <si>
     <t>nd, with all his ideas contributing to the development.</t>
   </si>
   <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
-  </si>
-  <si>
-    <t>183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0,105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,322,1.0,16.01,0.0,0.07,1.0,0.0,0.0,1.46,0.15,0.3,0.35,0.13,0.13</t>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3</t>
+  </si>
+  <si>
+    <t>17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
+  </si>
+  <si>
+    <t>10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42,15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63</t>
+  </si>
+  <si>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,28.5,5.65,1.6,0.97,1.65,1.0,16.01,0.0,0.07,1.0,0,0,0.0,0.0,1.46,0.16,0.07,0.19,0.07,0.07,0.05,0.04,0.1,0.13,0.13,4.47</t>
   </si>
   <si>
     <t>he implementation was left to Farquhar so i believe he is the rightful founder of Singapore. Raffles was just the 'idea man' before the founding but was summoned to Bencoolen by his superiors and did not have much contribution to the founding of Singapore.</t>
   </si>
   <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,218,0.0,14.98,0.0,0.05,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.13,0.13</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13</t>
-  </si>
-  <si>
-    <t>306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>105,0.0,22.99,0.0,0.07,1.0,0.0,0.0,0.88,0.05,0.15,0.15,0.0,0.0,140,0.0,16.91,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,151,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.29,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.0,15.4,0.0,0.09,1.0,0.0,0.0,0.58,0.2,0.3,0.3,0.0,0.0,212,1.0,17.62,0.0,0.09,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,12.67,5.74,1.07,1.46,0.73,0.0,14.98,0.0,0.05,1.0,0,0,0.0,0.0,0.58,0.26,0.05,0.18,0.03,0.03,0.11,0.0,0.0,0.13,0.13,3.27</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13</t>
+  </si>
+  <si>
+    <t>17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>15.0,7.0,0.42,0.49,0.87,0.0,22.99,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.27,0.07,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,5.63,11.5,6.09,0.65,0.97,0.66,0.0,16.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.0,0.17,0.17,0.17,0.04,0.17,0.2,0.0,0.0,0.3</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,14.0,5.39,0.79,0.97,0.81,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,0.29,0.21,0.04,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,10.13</t>
+  </si>
+  <si>
+    <t>14.0,6.13,1.57,1.94,0.81,0.0,15.4,0.0,0.09,1.0,0,0,0.0,0.0,0.58,0.25,0.04,0.14,0.05,0.05,0.07,0.05,0.0,0.0,0.0,4.0,17.5,6.06,0.98,0.97,1.01,1.0,17.62,0.0,0.09,1.0,0,0,0.0,0.0,0.88,0.23,0.06,0.26,0.06,0.06,0.03,0.0,0.0,0.0,0.0,7.67</t>
   </si>
   <si>
     <t>ar solve the problems faced by the people.</t>
   </si>
   <si>
-    <t>172,0.0,16.53,0.0,0.07,1.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>93,1.0,16.16,0.0,0.06,1.0,0.0,0.0,0.88,0.1,0.2,0.2,0.13,0.13,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13,172,0.0,15.55,0.0,0.1,2.0,0.0,0.0,0.88,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>179,0.33,20.36,0.0,0.04,1.0,0.0,0.0,0.58,0.25,0.3,0.3,0.0,0.0,248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25</t>
-  </si>
-  <si>
-    <t>144,0.0,14.95,0.0,0.04,1.0,0.0,0.0,0.58,0.1,0.25,0.25,0.06,0.13,175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0,183,0.0,14.13,0.0,0.06,1.0,0.0,0.0,0.88,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>159,0.0,17.2,0.0,0.08,0.5,0.0,0.0,0.58,0.2,0.35,0.35,0.0,0.0,95,1.0,14.97,0.0,0.06,1.0,0.0,0.0,0.58,0.15,0.15,0.15,0.06,0.13</t>
-  </si>
-  <si>
-    <t>175,0.0,17.24,0.0,0.03,2.0,0.0,0.0,0.88,0.1,0.1,0.1,0.0,0.0,193,0.5,13.07,0.0,0.11,1.0,0.0,0.0,0.88,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>251,0.0,16.81,0.0,0.07,1.0,0.0,0.02,0.58,0.1,0.25,0.25,0.13,0.13,306,0.33,16.24,0.0,0.06,1.0,0.0,0.04,0.58,0.2,0.3,0.35,0.13,0.0</t>
+    <t>30.0,5.73,0.84,0.49,1.73,0.0,16.53,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.17,0.1,0.23,0.0,0.0,0.03,0.07,0.0,0.0,0.0,4.55,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>16.0,5.81,0.45,0.49,0.93,1.0,16.16,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.19,0.0,0.31,0.13,0.13,0.0,0.0,0.0,0.13,0.13,6.71,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13,29.0,5.93,0.81,0.49,1.68,0.0,15.55,0.0,0.1,2.0,0,0,0.0,0.0,0.88,0.21,0.03,0.17,0.0,0.0,0.03,0.07,0.0,0.0,0.0,5.6</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89</t>
+  </si>
+  <si>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42</t>
+  </si>
+  <si>
+    <t>8.67,6.88,0.73,1.46,0.5,0.33,20.36,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.23,0.0,0.31,0.08,0.08,0.0,0.0,0.0,0.0,0.0,5.7,21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17</t>
+  </si>
+  <si>
+    <t>26.0,5.54,0.73,0.49,1.5,0.0,14.95,0.0,0.04,1.0,0,0,0.0,0.0,0.58,0.19,0.04,0.31,0.0,0.0,0.08,0.0,0.0,0.13,0.13,8.3,30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15</t>
+  </si>
+  <si>
+    <t>16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31,10.67,5.72,0.9,1.46,0.62,0.0,14.13,0.0,0.06,1.0,0,0,0.0,0.0,0.88,0.22,0.09,0.25,0.13,0.13,0.0,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>13.0,6.12,0.73,0.97,0.75,0.0,17.2,0.0,0.08,0.5,0,0,0.0,0.0,0.58,0.23,0.0,0.19,0.12,0.12,0.08,0.04,0.0,0.0,0.0,9.89,17.0,5.59,0.48,0.49,0.98,1.0,14.97,0.0,0.06,1.0,0,0,0.0,0.0,0.58,0.29,0.0,0.24,0.06,0.06,0.0,0.0,0.0,0.13,0.13,6.57</t>
+  </si>
+  <si>
+    <t>30.0,5.83,0.84,0.49,1.73,0.0,17.24,0.0,0.03,2.0,0,0,0.0,0.0,0.88,0.3,0.0,0.2,0.0,0.0,0.03,0.07,0.0,0.0,0.0,1.15,17.5,5.51,0.98,0.97,1.01,0.5,13.07,0.0,0.11,1.0,0,0,0.0,0.0,0.88,0.17,0.03,0.23,0.03,0.03,0.06,0.0,0.0,0.0,0.0,6.86</t>
+  </si>
+  <si>
+    <t>22.0,5.7,1.23,0.97,1.27,0.0,16.81,0.0,0.07,1.0,0,0,0.0,0.02,0.58,0.11,0.07,0.18,0.11,0.11,0.09,0.07,0.1,0.13,0.13,4.43,17.33,5.88,1.46,1.46,1.0,0.33,16.24,0.0,0.06,1.0,0,0,0.0,0.04,0.58,0.21,0.06,0.23,0.0,0.0,0.04,0.02,0.0,0.0,0.0,3.83</t>
   </si>
   <si>
     <t>a bad developer of the country.</t>
   </si>
   <si>
-    <t>459,0.25,15.91,0.0,0.06,1.0,0.0,0.0,1.46,0.2,0.45,0.45,0.0,0.0,263,0.4,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.06,0.13</t>
+    <t>19.25,5.96,2.16,1.94,1.11,0.25,15.91,0.0,0.06,1.0,0,0,0.0,0.0,1.46,0.18,0.09,0.19,0.03,0.03,0.03,0.0,0.0,0.0,0.0,5.42,9.4,5.6,1.32,2.43,0.54,0.4,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.02,0.23,0.04,0.04,0.04,0.02,0.0,0.13,0.13,4.13</t>
   </si>
   <si>
     <t>se pests hurt some people. The rats also destroyed the food supplies. Tigers were also a threat to the people here. He solved it by giving rewards were given to those people who killed these pests.</t>
   </si>
   <si>
-    <t>248,0.5,16.95,0.0,0.02,1.0,0.0,0.0,0.58,0.25,0.25,0.25,0.19,0.25,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>141,2.0,17.94,0.0,0.0,1.0,0.0,0.0,0.58,0.15,0.2,0.2,0.0,0.0,86,0.0,15.25,0.0,0.07,1.0,0.0,0.0,0.29,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,0.0,15.13,0.0,0.05,0.0,0.0,0.0,1.17,0.3,0.4,0.4,0.0,0.0,294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0,275,0.0,13.34,0.0,0.12,1.0,0.0,0.02,1.17,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>294,0.0,22.83,0.0,0.07,0.5,0.0,0.0,1.17,0.3,0.25,0.3,0.0,0.0,176,0.0,15.15,0.0,0.07,1.0,0.0,0.0,0.88,0.25,0.3,0.3,0.0,0.0</t>
+    <t>21.0,5.9,1.18,0.97,1.21,0.5,16.95,0.0,0.02,1.0,0,0,0.0,0.0,0.58,0.24,0.05,0.19,0.05,0.05,0.02,0.1,0.2,0.25,0.25,5.17,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
+  </si>
+  <si>
+    <t>23.0,6.13,0.65,0.49,1.33,2.0,17.94,0.0,0.0,1.0,0,0,0.0,0.0,0.58,0.13,0.0,0.35,0.04,0.04,0.13,0.0,0.0,0.0,0.0,6.0,7.0,6.14,0.39,0.97,0.4,0.0,15.25,0.0,0.07,1.0,0,0,0.0,0.0,0.29,0.36,0.14,0.21,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
+  </si>
+  <si>
+    <t>42.0,5.45,1.18,0.49,2.43,0.0,15.13,0.0,0.05,0.0,0,0,0.0,0.0,1.17,0.24,0.05,0.24,0.0,0.0,0.0,0.0,0.0,0.0,0.0,6.79,21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68</t>
+  </si>
+  <si>
+    <t>10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33,16.33,5.61,1.38,1.46,0.94,0.0,13.34,0.0,0.12,1.0,0,0,0.0,0.02,1.17,0.16,0.06,0.2,0.1,0.1,0.06,0.02,0.1,0.0,0.0,3.31</t>
+  </si>
+  <si>
+    <t>21.0,7.0,1.18,0.97,1.21,0.0,22.83,0.0,0.07,0.5,0,0,0.0,0.0,1.17,0.31,0.07,0.17,0.05,0.05,0.1,0.14,0.3,0.0,0.0,4.68,10.0,5.87,0.84,1.46,0.58,0.0,15.15,0.0,0.07,1.0,0,0,0.0,0.0,0.88,0.3,0.07,0.13,0.07,0.07,0.0,0.0,0.0,0.0,0.0,6.33</t>
   </si>
 </sst>
 </file>
